--- a/assets/documents/outcome_measures_import.xlsx
+++ b/assets/documents/outcome_measures_import.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Instructions" sheetId="3" r:id="rId2"/>
     <sheet name="Data" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -220,9 +220,6 @@
     <t>I don't want to say</t>
   </si>
   <si>
-    <t>Please leave the structure of this excel file the same, do not change any headings or organize the columns. Answer the questions in the same order that they appear in the printed version of the survey.  Use the drop downs for responses where needed although you can add new responses where needed (i.e. a residence or language that is not listed).</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -230,13 +227,49 @@
   </si>
   <si>
     <t>Calgary</t>
+  </si>
+  <si>
+    <t>If you are collecting pre- and post- data (applies to most programs):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Tab 1, each row represents one pre or post survey per client, so you will have two lines for each client – one pre, one post. Enter your first client’s pre-survey information – fill in their demographic info using the dropdown menus. Select the first cell, and you’ll see a ‘down’ arrow beside it. Click the arrow and it will give you your options. There is no dropdown for name or people in family – just type the name or value. </t>
+  </si>
+  <si>
+    <t>“Q1” corresponds to the first question, “Q2” to question 2, etc. Double-check that you are entering the correct answers to their respective questions on the proper survey. Select the client’s given answer from 1 to 5.</t>
+  </si>
+  <si>
+    <t>Once you have entered the first client’s pre-survey data, you can prepare their post-survey row. You won’t have the post-survey data yet, so just select ‘post’ and enter their name and demographic information. Then leave the questions – Q1, etc. – blank for now, and enter them once you receive their post-data at the end of the program or year.</t>
+  </si>
+  <si>
+    <t>If you are collecting post-only data (applies to a minority of programs):</t>
+  </si>
+  <si>
+    <t>“Q1” corresponds to the first question of your survey, “Q2” to question 2, etc. Double-check that you are entering the correct answers to their respective questions on the proper survey. Select the client’s given answer from 1 to 5.</t>
+  </si>
+  <si>
+    <t>If you have any questions, you may contact the Social Planning team at 403.948.8878 or social.planning@airdrie.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you wish to use the template, save a copy for each unique survey for each program, titled with the name of your agency, program and survey name, for example: “MyAgency, MyProgram, Self Esteem”. There are three tabs: tab 1, “Input”, is to enter data. Tab 2, here, provides instructions. Tab 3 is the “Data” tab – please do not change anything here; it feeds into Tab 1. </t>
+  </si>
+  <si>
+    <t>This is a template to be used as an alternative to inputting FCSS survey directly into the Airdrie FCSS Portal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will be possible to upload this document to the portal, as long as the format of this Excel file is unchanged. Do not change any headings or reorganize the columns (i.e. question headings must still read 'Q1,' 'Q2,' etc.).  </t>
+  </si>
+  <si>
+    <t>First make sure that we have approved your program for post-only data collection, and that Social Planning has confirmed the wording of your questions (they will be worded differently from pre-and-post surveys). Surveys with questions that have not been approved by us will not be accepted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Tab 1, each row represents one client. For post-only surveys, always select “Post” in the first column. Enter your first client’s information using the dropdown menus. Select the cell you wish to enter data into, and you’ll see a ‘down’ arrow beside it. Click the arrow and it will give you your options. There is no dropdown for name or people in family – just type the name or value. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +293,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -281,17 +334,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,17 +665,17 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,18 +843,74 @@
     <col min="1" max="1" width="110.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -852,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
@@ -903,7 +1015,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>55</v>
@@ -931,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>

--- a/assets/documents/outcome_measures_import.xlsx
+++ b/assets/documents/outcome_measures_import.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -163,9 +163,6 @@
     <t>70-74</t>
   </si>
   <si>
-    <t>75+</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>Rocky View &amp; County Area</t>
   </si>
   <si>
-    <t>Another Province/Country</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -217,9 +211,6 @@
     <t>$200,000 +</t>
   </si>
   <si>
-    <t>I don't want to say</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -263,6 +254,24 @@
   </si>
   <si>
     <t xml:space="preserve">In Tab 1, each row represents one client. For post-only surveys, always select “Post” in the first column. Enter your first client’s information using the dropdown menus. Select the cell you wish to enter data into, and you’ll see a ‘down’ arrow beside it. Click the arrow and it will give you your options. There is no dropdown for name or people in family – just type the name or value. </t>
+  </si>
+  <si>
+    <t>75 and over</t>
+  </si>
+  <si>
+    <t>No Response</t>
+  </si>
+  <si>
+    <t>Not listed</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
   </si>
 </sst>
 </file>
@@ -664,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -814,15 +823,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
+            <xm:f>Data!$E$1:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1065</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
             <xm:f>Data!$D$1:$D$5</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1165</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$E$1:$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G1065</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -845,67 +854,67 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -916,15 +925,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -935,19 +945,19 @@
         <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -958,53 +968,59 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1015,13 +1031,13 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1032,10 +1048,10 @@
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1043,26 +1059,38 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
@@ -1091,7 +1119,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/assets/documents/outcome_measures_import.xlsx
+++ b/assets/documents/outcome_measures_import.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3804" windowHeight="2700"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H1277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,13 +784,7 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$F$1:$F$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1165</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$G$1:$G$5</xm:f>
@@ -805,33 +799,33 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$B$1:$B$2</xm:f>
+            <xm:f>Data!$D$1:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1165</xm:sqref>
+          <xm:sqref>F2:F1165</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$C$1:$C$16</xm:f>
+            <xm:f>Data!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1165</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>Data!$E$1:$E$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1066:G1165</xm:sqref>
+          <xm:sqref>C2:C1278</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$E$1:$E$7</xm:f>
+            <xm:f>Data!$C$1:$C$17</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1065</xm:sqref>
+          <xm:sqref>D2:D1274</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Data!$D$1:$D$5</xm:f>
+            <xm:f>Data!$E$1:$E$10</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1165</xm:sqref>
+          <xm:sqref>G2:G1274</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$F$1:$F$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1277</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -927,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/assets/documents/outcome_measures_import.xlsx
+++ b/assets/documents/outcome_measures_import.xlsx
@@ -31,24 +31,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> People in Family</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Residence</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Income</t>
-  </si>
-  <si>
     <t>Pre/Post</t>
   </si>
   <si>
@@ -272,6 +254,24 @@
   </si>
   <si>
     <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Residence</t>
+  </si>
+  <si>
+    <t>People in Family</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H1277"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,88 +690,88 @@
   <sheetData>
     <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -848,67 +848,67 @@
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -936,22 +936,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -959,22 +959,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -982,19 +982,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -1002,19 +1002,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1022,16 +1022,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1039,86 +1039,86 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
